--- a/FinalUi/Data/VORTEX_ALPHA_TEST_REPORT.xlsx
+++ b/FinalUi/Data/VORTEX_ALPHA_TEST_REPORT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pankaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pankaj\Documents\billingsystem\FinalUi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEMS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t xml:space="preserve">TITLE </t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>resolved</t>
+  </si>
+  <si>
+    <t>ved</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1262,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1294,9 @@
       <c r="A4" t="s">
         <v>65</v>
       </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/FinalUi/Data/VORTEX_ALPHA_TEST_REPORT.xlsx
+++ b/FinalUi/Data/VORTEX_ALPHA_TEST_REPORT.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEMS" sheetId="1" r:id="rId1"/>
     <sheet name="FEATURES REMAINING" sheetId="2" r:id="rId2"/>
     <sheet name="PENDING DESIGN" sheetId="3" r:id="rId3"/>
+    <sheet name="MicroWin" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FEATURES REMAINING'!$A$1:$C$15</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t xml:space="preserve">TITLE </t>
   </si>
@@ -352,6 +353,66 @@
   </si>
   <si>
     <t>worker</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>revelance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> our status</t>
+  </si>
+  <si>
+    <t>user creation</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>stock entry</t>
+  </si>
+  <si>
+    <t>impetaion remaining</t>
+  </si>
+  <si>
+    <t>consinment booking</t>
+  </si>
+  <si>
+    <t>unknow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add to main menu as consignment booking </t>
+  </si>
+  <si>
+    <t>manifest preparation</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>custome invoice</t>
+  </si>
+  <si>
+    <t>pankaj needs to do his part</t>
+  </si>
+  <si>
+    <t>stock report</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>volume weight calculator</t>
+  </si>
+  <si>
+    <t>sometime in the future</t>
+  </si>
+  <si>
+    <t>payment entry</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,4 +1383,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalUi/Data/VORTEX_ALPHA_TEST_REPORT.xlsx
+++ b/FinalUi/Data/VORTEX_ALPHA_TEST_REPORT.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alishan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEMS" sheetId="1" r:id="rId1"/>
     <sheet name="FEATURES REMAINING" sheetId="2" r:id="rId2"/>
     <sheet name="PENDING DESIGN" sheetId="3" r:id="rId3"/>
-    <sheet name="MicroWin" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Pending Issues" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FEATURES REMAINING'!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FEATURES REMAINING'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$D$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="177">
   <si>
     <t xml:space="preserve">TITLE </t>
   </si>
@@ -88,6 +95,9 @@
     <t>THIS BUTTON IS WORKING BUT THERE IS SOME ISSUE WHEN DEALING WITH ONE RECORD THOUGH</t>
   </si>
   <si>
+    <t>NOT SO SURE OF IT</t>
+  </si>
+  <si>
     <t>THE WHITE BUTTON BESIDE POWER ENTRY</t>
   </si>
   <si>
@@ -226,6 +236,9 @@
     <t>MANAGE CLIENT NEEDS TO BE DESIGNED</t>
   </si>
   <si>
+    <t>RATE WINDOW (RATE ASSIGNMENT) NEEDS TO BE DESIGNED</t>
+  </si>
+  <si>
     <t>DTDC INVOICE ANALYSIS</t>
   </si>
   <si>
@@ -331,95 +344,227 @@
     <t xml:space="preserve">FILTER </t>
   </si>
   <si>
-    <t>delete rate window</t>
-  </si>
-  <si>
-    <t>crash on delete if no row is selected</t>
-  </si>
-  <si>
-    <t>unresolved</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>ved</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Under Consideration</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>revelance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> our status</t>
-  </si>
-  <si>
-    <t>user creation</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>stock entry</t>
-  </si>
-  <si>
-    <t>impetaion remaining</t>
-  </si>
-  <si>
-    <t>consinment booking</t>
-  </si>
-  <si>
-    <t>unknow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> add to main menu as consignment booking </t>
-  </si>
-  <si>
-    <t>manifest preparation</t>
-  </si>
-  <si>
-    <t>invoice</t>
-  </si>
-  <si>
-    <t>inprogress</t>
-  </si>
-  <si>
-    <t>custome invoice</t>
-  </si>
-  <si>
-    <t>pankaj needs to do his part</t>
-  </si>
-  <si>
-    <t>stock report</t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
-    <t>volume weight calculator</t>
-  </si>
-  <si>
-    <t>sometime in the future</t>
-  </si>
-  <si>
-    <t>payment entry</t>
+    <t>DOUBLE CLICK IS ACTING EVERYWHERE IN THE RATE WINDOW</t>
+  </si>
+  <si>
+    <t>RESOLVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW BUGS </t>
+  </si>
+  <si>
+    <t>NEEDS TO BE RESOLVED QUICKLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUBLE CLICK ON THE TITLE BAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE WINDOW NEEDS TO BE MAXIMIZE AND MINIMIZE </t>
+  </si>
+  <si>
+    <t>MICROWIN REPORT</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>USER CREATION</t>
+  </si>
+  <si>
+    <t>STOCK ENTRY</t>
+  </si>
+  <si>
+    <t>DATA INPUT</t>
+  </si>
+  <si>
+    <t>CONSIGNMENT BOOKING</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVOICE </t>
+  </si>
+  <si>
+    <t>AUTO CALCULATION</t>
+  </si>
+  <si>
+    <t>CUSTOM INVOICE</t>
+  </si>
+  <si>
+    <t>CLIENT TARIFF REPORT</t>
+  </si>
+  <si>
+    <t>BOY WISE CLIENT REPORT</t>
+  </si>
+  <si>
+    <t>SALES/CHECKLIST</t>
+  </si>
+  <si>
+    <t>FORWARDER REPORTING</t>
+  </si>
+  <si>
+    <t>STOCK REPORT</t>
+  </si>
+  <si>
+    <t>POD REPORT</t>
+  </si>
+  <si>
+    <t>VOLUME WEIGHT CALCULATOR</t>
+  </si>
+  <si>
+    <t>COSTING ANALYSIS REPORT</t>
+  </si>
+  <si>
+    <t>CONSOLIDATED SALES REPORT</t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>PAYMENT ENTRY</t>
+  </si>
+  <si>
+    <t>A/C STATEMENT</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTRY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONE </t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANCH </t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>FORWARDER</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>CLIENT TARIFF</t>
+  </si>
+  <si>
+    <t>FORWARDER TARIFF</t>
+  </si>
+  <si>
+    <t>SERVICE TAX</t>
+  </si>
+  <si>
+    <t>DELIVERY BOY PROFILE</t>
+  </si>
+  <si>
+    <t>FUEL MASTER</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>DATA IMPORT</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>WEIGHT UPDATION</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NOT YET</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Ease of completion</t>
+  </si>
+  <si>
+    <t>Dependence</t>
+  </si>
+  <si>
+    <t>CLIENT REPORT</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>PRINTING</t>
+  </si>
+  <si>
+    <t>INVOICE ANALYSIS</t>
+  </si>
+  <si>
+    <t>ABOUT</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>FEATURES IN FINAL RELEASE</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ASSIGNED TO</t>
+  </si>
+  <si>
+    <t>PANKAJ</t>
+  </si>
+  <si>
+    <t>VEDANSHU</t>
+  </si>
+  <si>
+    <t>ALISHAN</t>
+  </si>
+  <si>
+    <t>PURUSHOTTAM</t>
+  </si>
+  <si>
+    <t>TOOLTIPS</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progess </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,7 +590,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +631,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,9 +738,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,6 +773,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,24 +949,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="109.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="90.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -812,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -823,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -834,12 +1013,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -850,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -861,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -872,7 +1051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -880,247 +1059,284 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="3" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
       </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1130,254 +1346,276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C15">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1386,138 +1624,590 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:E22">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="VEDANSHU"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
